--- a/reason_table/reason_statement.xlsx
+++ b/reason_table/reason_statement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Project\reason_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Project\SOA\reason_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,7 +396,21 @@
     <t>C</t>
   </si>
   <si>
-    <t>department</t>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epartment</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -534,16 +548,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,14 +564,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -598,8 +600,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -608,23 +619,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,19 +1381,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1160BDA-3AC0-4A6E-93AF-CF1314400F9C}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1403,10 +1402,10 @@
       <c r="C1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1429,650 +1428,902 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>201701</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <f xml:space="preserve"> 201700 + ROW()^3 - ROW()^2 + ROW() - 2</f>
         <v>201719</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:C19" si="0" xml:space="preserve"> 201700 + ROW()^3 - ROW()^2 + ROW() - 2</f>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C26" si="0" xml:space="preserve"> 201700 + ROW()^3 - ROW()^2 + ROW() - 2</f>
         <v>201750</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="2">
-        <v>80</v>
+      <c r="J4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>201803</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>201884</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>201999</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>202154</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>202355</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>202608</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>202919</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>203294</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
+      <c r="J12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>203739</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>204260</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>204863</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>205554</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>206339</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>207224</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>208215</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>209318</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>210539</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>211884</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>213359</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>214970</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>216723</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>218624</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2092,65 +2343,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.58203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.4140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>480</v>
       </c>
     </row>
